--- a/dir_GRUPOS12.xlsx
+++ b/dir_GRUPOS12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE50FB1-ED92-4452-BAE2-107C62631E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2039D4-51A5-4EE3-97EA-B6245322872D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Categoría</t>
   </si>
   <si>
-    <t>GRUPO12</t>
+    <t>GRUPOS12</t>
   </si>
 </sst>
 </file>
@@ -962,9 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77997886-12EA-47C2-AF4E-4559AD86DA82}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>

--- a/dir_GRUPOS12.xlsx
+++ b/dir_GRUPOS12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\Directorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2039D4-51A5-4EE3-97EA-B6245322872D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDD52E5-4585-40F7-B0E8-26DD65D2872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Categoría</t>
   </si>
   <si>
-    <t>GRUPOS12</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -582,9 +582,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -962,7 +965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77997886-12EA-47C2-AF4E-4559AD86DA82}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -970,10 +975,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
